--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="154">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,43 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>crash</t>
   </si>
   <si>
     <t>crisis</t>
@@ -67,96 +85,93 @@
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
+    <t>disgusting</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>disgusting</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>pressure</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>isolation</t>
   </si>
   <si>
@@ -166,64 +181,91 @@
     <t>demand</t>
   </si>
   <si>
+    <t>outbreak</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>well</t>
@@ -232,190 +274,208 @@
     <t>help</t>
   </si>
   <si>
-    <t>join</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>energy</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>available</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>000</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>retail</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>full</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>hands</t>
+    <t>3</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
     <t>today</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>news</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>san</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>san</t>
+    <t>time</t>
   </si>
   <si>
     <t>people</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>toilet</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -773,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,10 +841,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -842,13 +902,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -860,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -892,13 +952,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -910,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -934,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -942,13 +1002,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8947368421052632</v>
+        <v>0.96</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -992,13 +1052,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8846153846153846</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1010,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>0.9148936170212766</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1034,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1042,13 +1102,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1063,16 +1123,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K7">
-        <v>0.9014084507042254</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1084,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1092,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8620689655172413</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1113,16 +1173,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K8">
-        <v>0.8780487804878049</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1134,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1142,13 +1202,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1163,16 +1223,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1184,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1192,13 +1252,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8493150684931506</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C10">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1210,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1242,13 +1302,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8205128205128205</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1260,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K11">
-        <v>0.859375</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="L11">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1284,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1292,7 +1352,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8157894736842105</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C12">
         <v>31</v>
@@ -1310,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K12">
-        <v>0.8431372549019608</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1334,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,13 +1402,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1360,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1384,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1392,13 +1452,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1410,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K14">
         <v>0.8301886792452831</v>
@@ -1442,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7692307692307693</v>
+        <v>0.8125</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1460,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K15">
         <v>0.8275862068965517</v>
@@ -1492,13 +1552,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1510,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K16">
-        <v>0.8076923076923077</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1534,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1542,13 +1602,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1560,31 +1620,31 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L17">
+        <v>42</v>
+      </c>
+      <c r="M17">
+        <v>42</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>9</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17">
-        <v>0.79375</v>
-      </c>
-      <c r="L17">
-        <v>127</v>
-      </c>
-      <c r="M17">
-        <v>127</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1592,13 +1652,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1610,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K18">
-        <v>0.7859007832898173</v>
+        <v>0.82</v>
       </c>
       <c r="L18">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1634,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,13 +1702,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6842105263157895</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1660,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1684,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1692,13 +1752,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6818181818181818</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1710,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K20">
-        <v>0.74</v>
+        <v>0.7875</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1734,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1742,13 +1802,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6756756756756757</v>
+        <v>0.75</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1760,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K21">
-        <v>0.723404255319149</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1784,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1792,13 +1852,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6756756756756757</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1810,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K22">
-        <v>0.7186440677966102</v>
+        <v>0.7728459530026109</v>
       </c>
       <c r="L22">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="M22">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1834,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1842,49 +1902,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6521739130434783</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="L23">
+        <v>48</v>
+      </c>
+      <c r="M23">
+        <v>48</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>15</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L23">
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1892,13 +1952,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6451612903225806</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1910,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1934,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1942,13 +2002,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6129032258064516</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1960,31 +2020,31 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25">
+        <v>0.7209302325581395</v>
+      </c>
+      <c r="L25">
+        <v>31</v>
+      </c>
+      <c r="M25">
+        <v>31</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>12</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L25">
-        <v>18</v>
-      </c>
-      <c r="M25">
-        <v>18</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1992,13 +2052,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6111111111111112</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2010,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K26">
-        <v>0.6617647058823529</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L26">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2034,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2042,13 +2102,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6086956521739131</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2060,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K27">
-        <v>0.6470588235294118</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2084,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2092,13 +2152,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5678294573643411</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C28">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2110,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K28">
-        <v>0.6461538461538462</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2134,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2142,13 +2202,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5652173913043478</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2160,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>0.6458333333333334</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2184,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2192,13 +2252,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5490196078431373</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2210,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K30">
-        <v>0.6443514644351465</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2234,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2242,13 +2302,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5436241610738255</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C31">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2260,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K31">
-        <v>0.6301369863013698</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2284,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2292,13 +2352,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5132275132275133</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C32">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2310,19 +2370,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K32">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2334,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2342,13 +2402,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.6104651162790697</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2360,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K33">
-        <v>0.6292134831460674</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L33">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="M33">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2384,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2392,13 +2452,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4933333333333333</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2410,19 +2470,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K34">
-        <v>0.5909090909090909</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2434,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2442,13 +2502,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4888888888888889</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C35">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2460,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K35">
-        <v>0.5909090909090909</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2484,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2492,13 +2552,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4464285714285715</v>
+        <v>0.5637583892617449</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2510,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K36">
-        <v>0.578125</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2534,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2542,13 +2602,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4415584415584415</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2560,19 +2620,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K37">
-        <v>0.5769230769230769</v>
+        <v>0.625</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2584,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2592,49 +2652,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.423728813559322</v>
+        <v>0.52</v>
       </c>
       <c r="C38">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>39</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>36</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>25</v>
-      </c>
-      <c r="D38">
-        <v>25</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>34</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L38">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>19</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2642,13 +2702,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3818181818181818</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2660,19 +2720,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K39">
-        <v>0.5555555555555556</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2684,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2692,37 +2752,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3559322033898305</v>
+        <v>0.475</v>
       </c>
       <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>21</v>
       </c>
-      <c r="D40">
-        <v>21</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>38</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K40">
-        <v>0.5483870967741935</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2734,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2742,13 +2802,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.325</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2760,19 +2820,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K41">
-        <v>0.525</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2784,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2792,13 +2852,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3137254901960784</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2810,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K42">
-        <v>0.5142857142857142</v>
+        <v>0.5625</v>
       </c>
       <c r="L42">
         <v>36</v>
@@ -2834,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2842,13 +2902,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3134920634920635</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C43">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D43">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2860,19 +2920,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K43">
-        <v>0.4666666666666667</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2884,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2892,13 +2952,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1689008042895442</v>
+        <v>0.4</v>
       </c>
       <c r="C44">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2910,19 +2970,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K44">
-        <v>0.4642857142857143</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2934,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2942,453 +3002,645 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00492772667542707</v>
+        <v>0.3875</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="E45">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.1899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>3029</v>
+        <v>49</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K45">
-        <v>0.4390243902439024</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L45">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>25</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>37</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46">
+        <v>0.525</v>
+      </c>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C47">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>34</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.2817460317460317</v>
+      </c>
+      <c r="C48">
+        <v>71</v>
+      </c>
+      <c r="D48">
+        <v>71</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>181</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="L48">
+        <v>17</v>
+      </c>
+      <c r="M48">
+        <v>17</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.1720430107526882</v>
+      </c>
+      <c r="C49">
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <v>65</v>
+      </c>
+      <c r="E49">
+        <v>0.02</v>
+      </c>
+      <c r="F49">
+        <v>0.98</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>308</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49">
+        <v>0.5</v>
+      </c>
+      <c r="L49">
+        <v>21</v>
+      </c>
+      <c r="M49">
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.1024096385542169</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>149</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K50">
+        <v>0.5</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.009106239460370995</v>
+      </c>
+      <c r="C51">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <v>169</v>
+      </c>
+      <c r="E51">
+        <v>0.84</v>
+      </c>
+      <c r="F51">
+        <v>0.16</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2938</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K51">
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>14</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.007128309572301426</v>
+      </c>
+      <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>193</v>
+      </c>
+      <c r="E52">
+        <v>0.93</v>
+      </c>
+      <c r="F52">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1950</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.006099518459069021</v>
+      </c>
+      <c r="C53">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>105</v>
+      </c>
+      <c r="E53">
+        <v>0.82</v>
+      </c>
+      <c r="F53">
+        <v>0.18</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3096</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K53">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="L53">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <v>26</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="L54">
+        <v>25</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K55">
+        <v>0.3829787234042553</v>
+      </c>
+      <c r="L55">
         <v>18</v>
       </c>
-      <c r="M45">
-        <v>19</v>
-      </c>
-      <c r="N45">
-        <v>0.95</v>
-      </c>
-      <c r="O45">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K46">
-        <v>0.425</v>
-      </c>
-      <c r="L46">
-        <v>17</v>
-      </c>
-      <c r="M46">
-        <v>17</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K47">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="L47">
+      <c r="M55">
+        <v>18</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K56">
+        <v>0.352112676056338</v>
+      </c>
+      <c r="L56">
         <v>25</v>
-      </c>
-      <c r="M47">
-        <v>25</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K48">
-        <v>0.4</v>
-      </c>
-      <c r="L48">
-        <v>14</v>
-      </c>
-      <c r="M48">
-        <v>14</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K49">
-        <v>0.360655737704918</v>
-      </c>
-      <c r="L49">
-        <v>22</v>
-      </c>
-      <c r="M49">
-        <v>22</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K50">
-        <v>0.3191489361702128</v>
-      </c>
-      <c r="L50">
-        <v>15</v>
-      </c>
-      <c r="M50">
-        <v>15</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="L51">
-        <v>39</v>
-      </c>
-      <c r="M51">
-        <v>41</v>
-      </c>
-      <c r="N51">
-        <v>0.95</v>
-      </c>
-      <c r="O51">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K52">
-        <v>0.2711864406779661</v>
-      </c>
-      <c r="L52">
-        <v>16</v>
-      </c>
-      <c r="M52">
-        <v>16</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K53">
-        <v>0.2452830188679245</v>
-      </c>
-      <c r="L53">
-        <v>13</v>
-      </c>
-      <c r="M53">
-        <v>13</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K54">
-        <v>0.2315789473684211</v>
-      </c>
-      <c r="L54">
-        <v>22</v>
-      </c>
-      <c r="M54">
-        <v>22</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K55">
-        <v>0.2248803827751196</v>
-      </c>
-      <c r="L55">
-        <v>94</v>
-      </c>
-      <c r="M55">
-        <v>94</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K56">
-        <v>0.2047244094488189</v>
-      </c>
-      <c r="L56">
-        <v>26</v>
       </c>
       <c r="M56">
         <v>26</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K57">
+        <v>0.2559808612440191</v>
+      </c>
+      <c r="L57">
+        <v>107</v>
+      </c>
+      <c r="M57">
+        <v>107</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K58">
+        <v>0.2315789473684211</v>
+      </c>
+      <c r="L58">
+        <v>22</v>
+      </c>
+      <c r="M58">
+        <v>22</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K59">
+        <v>0.2280701754385965</v>
+      </c>
+      <c r="L59">
+        <v>13</v>
+      </c>
+      <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K60">
+        <v>0.2230769230769231</v>
+      </c>
+      <c r="L60">
+        <v>29</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60">
+        <v>0.97</v>
+      </c>
+      <c r="O60">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K57">
-        <v>0.2019230769230769</v>
-      </c>
-      <c r="L57">
-        <v>84</v>
-      </c>
-      <c r="M57">
-        <v>84</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K58">
-        <v>0.1973684210526316</v>
-      </c>
-      <c r="L58">
-        <v>15</v>
-      </c>
-      <c r="M58">
-        <v>15</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K59">
-        <v>0.1627906976744186</v>
-      </c>
-      <c r="L59">
-        <v>35</v>
-      </c>
-      <c r="M59">
-        <v>35</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K60">
-        <v>0.1582278481012658</v>
-      </c>
-      <c r="L60">
-        <v>25</v>
-      </c>
-      <c r="M60">
-        <v>26</v>
-      </c>
-      <c r="N60">
-        <v>0.96</v>
-      </c>
-      <c r="O60">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
+    <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K61">
-        <v>0.1538461538461539</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3400,21 +3652,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K62">
-        <v>0.1467889908256881</v>
+        <v>0.2</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3426,47 +3678,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K63">
-        <v>0.1428571428571428</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K64">
-        <v>0.1395348837209302</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L64">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3478,21 +3730,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>185</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K65">
-        <v>0.134020618556701</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3504,47 +3756,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K66">
-        <v>0.1279069767441861</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L66">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>150</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K67">
-        <v>0.1253822629969419</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="L67">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3556,21 +3808,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K68">
-        <v>0.1203007518796992</v>
+        <v>0.1610576923076923</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3582,99 +3834,99 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>117</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K69">
-        <v>0.1151515151515152</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K70">
-        <v>0.1052631578947368</v>
+        <v>0.1478260869565217</v>
       </c>
       <c r="L70">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N70">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>238</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K71">
-        <v>0.1048034934497817</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>205</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K72">
-        <v>0.09766925638179801</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L72">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3686,47 +3938,47 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>813</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K73">
-        <v>0.09060402684563758</v>
+        <v>0.1410974244120941</v>
       </c>
       <c r="L73">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="M73">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>813</v>
+        <v>767</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K74">
-        <v>0.08648648648648649</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3738,21 +3990,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K75">
-        <v>0.08588957055214724</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L75">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M75">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3764,73 +4016,73 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>149</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K76">
-        <v>0.07550077041602465</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="L76">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M76">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>600</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K77">
-        <v>0.07501172058134084</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L77">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="N77">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O77">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>1973</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K78">
-        <v>0.06689734717416378</v>
+        <v>0.13</v>
       </c>
       <c r="L78">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M78">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3842,15 +4094,15 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>809</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K79">
-        <v>0.05844155844155844</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="L79">
         <v>18</v>
@@ -3868,163 +4120,527 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>290</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K80">
-        <v>0.05761316872427984</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L80">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M80">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>458</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K81">
-        <v>0.02762430939226519</v>
+        <v>0.1188888888888889</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N81">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="O81">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>528</v>
+        <v>793</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K82">
-        <v>0.0265017667844523</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M82">
         <v>16</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>551</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K83">
-        <v>0.0203751617076326</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L83">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M83">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="N83">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>3029</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K84">
-        <v>0.01968911917098446</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="L84">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M84">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N84">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>946</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K85">
-        <v>0.01128880526810913</v>
+        <v>0.1015037593984962</v>
       </c>
       <c r="L85">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M85">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N85">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="O85">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>3153</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K86">
+        <v>0.09837962962962964</v>
+      </c>
+      <c r="L86">
+        <v>85</v>
+      </c>
+      <c r="M86">
+        <v>88</v>
+      </c>
+      <c r="N86">
+        <v>0.97</v>
+      </c>
+      <c r="O86">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K87">
+        <v>0.09104938271604938</v>
+      </c>
+      <c r="L87">
+        <v>59</v>
+      </c>
+      <c r="M87">
+        <v>61</v>
+      </c>
+      <c r="N87">
+        <v>0.97</v>
+      </c>
+      <c r="O87">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K88">
+        <v>0.0880503144654088</v>
+      </c>
+      <c r="L88">
+        <v>14</v>
+      </c>
+      <c r="M88">
+        <v>14</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K89">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="L89">
+        <v>16</v>
+      </c>
+      <c r="M89">
+        <v>16</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K90">
+        <v>0.08407703147017379</v>
+      </c>
+      <c r="L90">
+        <v>179</v>
+      </c>
+      <c r="M90">
+        <v>193</v>
+      </c>
+      <c r="N90">
+        <v>0.93</v>
+      </c>
+      <c r="O90">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K91">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L91">
+        <v>19</v>
+      </c>
+      <c r="M91">
+        <v>21</v>
+      </c>
+      <c r="N91">
+        <v>0.9</v>
+      </c>
+      <c r="O91">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K92">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L92">
+        <v>22</v>
+      </c>
+      <c r="M92">
+        <v>22</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K93">
+        <v>0.04626334519572953</v>
+      </c>
+      <c r="L93">
+        <v>13</v>
+      </c>
+      <c r="M93">
+        <v>13</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K94">
+        <v>0.04610389610389611</v>
+      </c>
+      <c r="L94">
+        <v>142</v>
+      </c>
+      <c r="M94">
+        <v>169</v>
+      </c>
+      <c r="N94">
+        <v>0.84</v>
+      </c>
+      <c r="O94">
+        <v>0.16</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K95">
+        <v>0.03525046382189239</v>
+      </c>
+      <c r="L95">
+        <v>19</v>
+      </c>
+      <c r="M95">
+        <v>25</v>
+      </c>
+      <c r="N95">
+        <v>0.76</v>
+      </c>
+      <c r="O95">
+        <v>0.24</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K96">
+        <v>0.03215767634854771</v>
+      </c>
+      <c r="L96">
+        <v>31</v>
+      </c>
+      <c r="M96">
+        <v>35</v>
+      </c>
+      <c r="N96">
+        <v>0.89</v>
+      </c>
+      <c r="O96">
+        <v>0.11</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K97">
+        <v>0.03008849557522124</v>
+      </c>
+      <c r="L97">
+        <v>17</v>
+      </c>
+      <c r="M97">
+        <v>19</v>
+      </c>
+      <c r="N97">
+        <v>0.89</v>
+      </c>
+      <c r="O97">
+        <v>0.11</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K98">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="L98">
+        <v>86</v>
+      </c>
+      <c r="M98">
+        <v>105</v>
+      </c>
+      <c r="N98">
+        <v>0.82</v>
+      </c>
+      <c r="O98">
+        <v>0.18</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K99">
+        <v>0.0199479618386817</v>
+      </c>
+      <c r="L99">
+        <v>23</v>
+      </c>
+      <c r="M99">
+        <v>31</v>
+      </c>
+      <c r="N99">
+        <v>0.74</v>
+      </c>
+      <c r="O99">
+        <v>0.26</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
